--- a/2024/SENT/Vishmi Vikumsara/export 1.0.xlsx
+++ b/2024/SENT/Vishmi Vikumsara/export 1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\Vishmi Vikumsara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\SENT\Vishmi Vikumsara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016C5737-2760-4B14-868D-78EB1B55CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F2478-A6FA-41C5-9C1C-5AB5F6896E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,136 +817,102 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="21" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="26" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="21" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="26" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,32 +924,65 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="31" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,13 +1138,13 @@
                 <c:formatCode>###0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,29 +1386,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$261:$C$262</c:f>
+              <c:f>Sheet1!$C$241:$C$245</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Tõ</c:v>
+                  <c:v>l¿</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ke;</c:v>
+                  <c:v>ks,a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>r;=</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>oï</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ly</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$261:$D$262</c:f>
+              <c:f>Sheet1!$D$241:$D$245</c:f>
               <c:numCache>
                 <c:formatCode>###0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,6 +2744,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A6A3-426A-89DF-A3CDD67FAC46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2742,6 +2764,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A6A3-426A-89DF-A3CDD67FAC46}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2933,6 +2960,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C1FD-4DAC-920A-56FEF38B84AE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2948,6 +2980,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C1FD-4DAC-920A-56FEF38B84AE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3137,6 +3174,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C366-4943-90E7-DE1FDDD0E7DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3152,6 +3194,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C366-4943-90E7-DE1FDDD0E7DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3167,6 +3214,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C366-4943-90E7-DE1FDDD0E7DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3182,6 +3234,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C366-4943-90E7-DE1FDDD0E7DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3383,6 +3440,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B065-4855-9985-B2031BA5AC86}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3398,6 +3460,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B065-4855-9985-B2031BA5AC86}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3413,6 +3480,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B065-4855-9985-B2031BA5AC86}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3428,6 +3500,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B065-4855-9985-B2031BA5AC86}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3629,6 +3706,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-39D2-4A1C-9530-67AF6C107629}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3644,6 +3726,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-39D2-4A1C-9530-67AF6C107629}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3659,6 +3746,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-39D2-4A1C-9530-67AF6C107629}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4124,6 +4216,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FADF-46DE-ABB1-9C3761C244CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4139,6 +4236,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FADF-46DE-ABB1-9C3761C244CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4154,6 +4256,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FADF-46DE-ABB1-9C3761C244CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4179,13 +4286,13 @@
                 <c:formatCode>###0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5951,6 +6058,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5D84-4D32-B3A0-2E25D9610F6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -18054,1679 +18166,1677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.140625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="42" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="42" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="4"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="49"/>
     </row>
     <row r="42" spans="2:15" ht="245.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="L42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="18" t="s">
+      <c r="M42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="O42" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="9">
         <v>150</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="10">
         <v>150</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="10">
         <v>150</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="10">
         <v>150</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="10">
         <v>150</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="10">
         <v>150</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="10">
         <v>150</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="10">
         <v>150</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="10">
         <v>150</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="10">
         <v>150</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="10">
         <v>150</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="12">
         <v>0</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="13">
         <v>0</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="13">
         <v>0</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="13">
         <v>0</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="13">
         <v>0</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="13">
         <v>0</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="13">
         <v>0</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="13">
         <v>0</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="13">
         <v>0</v>
       </c>
-      <c r="N44" s="24">
+      <c r="N44" s="13">
         <v>0</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27">
+      <c r="C45" s="58"/>
+      <c r="D45" s="15">
         <v>0.77361408157011946</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="16">
         <v>0.75393078801015923</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="16">
         <v>0.46803889014115457</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28">
+      <c r="G45" s="17"/>
+      <c r="H45" s="16">
         <v>0.9316699783431156</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="16">
         <v>0.74892913856127252</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="16">
         <v>0.22545008425851171</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="16">
         <v>0.16164700403963203</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45" s="16">
         <v>0.11508191810497581</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M45" s="16">
         <v>0</v>
       </c>
-      <c r="N45" s="28">
+      <c r="N45" s="16">
         <v>0.22545008425851171</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O45" s="18">
         <v>0.19661566092456972</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="45" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="54"/>
-      <c r="C52" s="57" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="20">
-        <v>64</v>
-      </c>
-      <c r="E52" s="31">
-        <v>42.666666666666671</v>
-      </c>
-      <c r="F52" s="31">
-        <v>42.666666666666671</v>
-      </c>
-      <c r="G52" s="32">
-        <v>42.666666666666671</v>
+      <c r="D52" s="9">
+        <v>50</v>
+      </c>
+      <c r="E52" s="19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F52" s="19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G52" s="20">
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="51"/>
-      <c r="C53" s="58" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="23">
-        <v>54</v>
-      </c>
-      <c r="E53" s="33">
-        <v>36</v>
-      </c>
-      <c r="F53" s="33">
-        <v>36</v>
-      </c>
-      <c r="G53" s="34">
-        <v>78.666666666666657</v>
+      <c r="D53" s="12">
+        <v>50</v>
+      </c>
+      <c r="E53" s="21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F53" s="21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G53" s="22">
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="51"/>
-      <c r="C54" s="58" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="23">
-        <v>32</v>
-      </c>
-      <c r="E54" s="33">
-        <v>21.333333333333336</v>
-      </c>
-      <c r="F54" s="33">
-        <v>21.333333333333336</v>
-      </c>
-      <c r="G54" s="34">
+      <c r="D54" s="12">
+        <v>50</v>
+      </c>
+      <c r="E54" s="21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F54" s="21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G54" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
-      <c r="C55" s="41" t="s">
+      <c r="B55" s="46"/>
+      <c r="C55" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="23">
         <v>150</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="24">
         <v>100</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="24">
         <v>100</v>
       </c>
-      <c r="G55" s="37"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="45" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="54"/>
-      <c r="C70" s="57" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="9">
         <v>24</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="19">
         <v>16</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="19">
         <v>16</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="20">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="51"/>
-      <c r="C71" s="58" t="s">
+      <c r="B71" s="45"/>
+      <c r="C71" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="12">
         <v>38</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="21">
         <v>25.333333333333336</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="21">
         <v>25.333333333333336</v>
       </c>
-      <c r="G71" s="34">
+      <c r="G71" s="22">
         <v>41.333333333333336</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="51"/>
-      <c r="C72" s="58" t="s">
+      <c r="B72" s="45"/>
+      <c r="C72" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="12">
         <v>88</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="21">
         <v>58.666666666666664</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="21">
         <v>58.666666666666664</v>
       </c>
-      <c r="G72" s="34">
+      <c r="G72" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="52"/>
-      <c r="C73" s="41" t="s">
+      <c r="B73" s="46"/>
+      <c r="C73" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="23">
         <v>150</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="24">
         <v>100</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="24">
         <v>100</v>
       </c>
-      <c r="G73" s="37"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49"/>
     </row>
     <row r="87" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="45" t="s">
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E87" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G87" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="54"/>
-      <c r="C88" s="57" t="s">
+      <c r="B88" s="52"/>
+      <c r="C88" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="9">
         <v>102</v>
       </c>
-      <c r="E88" s="31">
+      <c r="E88" s="19">
         <v>68</v>
       </c>
-      <c r="F88" s="31">
+      <c r="F88" s="19">
         <v>68</v>
       </c>
-      <c r="G88" s="32">
+      <c r="G88" s="20">
         <v>68</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="51"/>
-      <c r="C89" s="58" t="s">
+      <c r="B89" s="45"/>
+      <c r="C89" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="12">
         <v>48</v>
       </c>
-      <c r="E89" s="33">
+      <c r="E89" s="21">
         <v>32</v>
       </c>
-      <c r="F89" s="33">
+      <c r="F89" s="21">
         <v>32</v>
       </c>
-      <c r="G89" s="34">
+      <c r="G89" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="52"/>
-      <c r="C90" s="41" t="s">
+      <c r="B90" s="46"/>
+      <c r="C90" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D90" s="35">
+      <c r="D90" s="23">
         <v>150</v>
       </c>
-      <c r="E90" s="36">
+      <c r="E90" s="24">
         <v>100</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="24">
         <v>100</v>
       </c>
-      <c r="G90" s="37"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="49"/>
     </row>
     <row r="104" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="15"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="45" t="s">
+      <c r="B104" s="50"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E104" s="46" t="s">
+      <c r="E104" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="47" t="s">
+      <c r="G104" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="54"/>
-      <c r="C105" s="44" t="s">
+      <c r="B105" s="52"/>
+      <c r="C105" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="9">
         <v>74</v>
       </c>
-      <c r="E105" s="31">
+      <c r="E105" s="19">
         <v>49.333333333333336</v>
       </c>
-      <c r="F105" s="31">
+      <c r="F105" s="19">
         <v>49.333333333333336</v>
       </c>
-      <c r="G105" s="32">
+      <c r="G105" s="20">
         <v>49.333333333333336</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="42" t="s">
+      <c r="B106" s="45"/>
+      <c r="C106" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="12">
         <v>54</v>
       </c>
-      <c r="E106" s="33">
+      <c r="E106" s="21">
         <v>36</v>
       </c>
-      <c r="F106" s="33">
+      <c r="F106" s="21">
         <v>36</v>
       </c>
-      <c r="G106" s="34">
+      <c r="G106" s="22">
         <v>85.333333333333343</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="51"/>
-      <c r="C107" s="42" t="s">
+      <c r="B107" s="45"/>
+      <c r="C107" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="12">
         <v>14</v>
       </c>
-      <c r="E107" s="33">
+      <c r="E107" s="21">
         <v>9.3333333333333339</v>
       </c>
-      <c r="F107" s="33">
+      <c r="F107" s="21">
         <v>9.3333333333333339</v>
       </c>
-      <c r="G107" s="34">
+      <c r="G107" s="22">
         <v>94.666666666666671</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="42" t="s">
+      <c r="B108" s="45"/>
+      <c r="C108" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="12">
         <v>8</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="F108" s="33">
+      <c r="F108" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="G108" s="34">
+      <c r="G108" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="52"/>
-      <c r="C109" s="41" t="s">
+      <c r="B109" s="46"/>
+      <c r="C109" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="23">
         <v>150</v>
       </c>
-      <c r="E109" s="36">
+      <c r="E109" s="24">
         <v>100</v>
       </c>
-      <c r="F109" s="36">
+      <c r="F109" s="24">
         <v>100</v>
       </c>
-      <c r="G109" s="37"/>
+      <c r="G109" s="25"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="4"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="49"/>
     </row>
     <row r="123" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="15"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="45" t="s">
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="46" t="s">
+      <c r="E123" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G123" s="47" t="s">
+      <c r="G123" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="54"/>
-      <c r="C124" s="57" t="s">
+      <c r="B124" s="52"/>
+      <c r="C124" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="9">
         <v>98</v>
       </c>
-      <c r="E124" s="31">
+      <c r="E124" s="19">
         <v>65.333333333333329</v>
       </c>
-      <c r="F124" s="31">
+      <c r="F124" s="19">
         <v>65.333333333333329</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="20">
         <v>65.333333333333329</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="51"/>
-      <c r="C125" s="58" t="s">
+      <c r="B125" s="45"/>
+      <c r="C125" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D125" s="12">
         <v>4</v>
       </c>
-      <c r="E125" s="33">
+      <c r="E125" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="F125" s="33">
+      <c r="F125" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="G125" s="34">
+      <c r="G125" s="22">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="51"/>
-      <c r="C126" s="58" t="s">
+      <c r="B126" s="45"/>
+      <c r="C126" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="12">
         <v>48</v>
       </c>
-      <c r="E126" s="33">
+      <c r="E126" s="21">
         <v>32</v>
       </c>
-      <c r="F126" s="33">
+      <c r="F126" s="21">
         <v>32</v>
       </c>
-      <c r="G126" s="34">
+      <c r="G126" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="52"/>
-      <c r="C127" s="41" t="s">
+      <c r="B127" s="46"/>
+      <c r="C127" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D127" s="35">
+      <c r="D127" s="23">
         <v>150</v>
       </c>
-      <c r="E127" s="36">
+      <c r="E127" s="24">
         <v>100</v>
       </c>
-      <c r="F127" s="36">
+      <c r="F127" s="24">
         <v>100</v>
       </c>
-      <c r="G127" s="37"/>
+      <c r="G127" s="25"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="4"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="49"/>
     </row>
     <row r="141" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="15"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="45" t="s">
+      <c r="B141" s="50"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E141" s="46" t="s">
+      <c r="E141" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="46" t="s">
+      <c r="F141" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G141" s="47" t="s">
+      <c r="G141" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="54"/>
-      <c r="C142" s="57" t="s">
+      <c r="B142" s="52"/>
+      <c r="C142" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D142" s="9">
         <v>78</v>
       </c>
-      <c r="E142" s="31">
+      <c r="E142" s="19">
         <v>52</v>
       </c>
-      <c r="F142" s="31">
+      <c r="F142" s="19">
         <v>52</v>
       </c>
-      <c r="G142" s="32">
+      <c r="G142" s="20">
         <v>52</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="51"/>
-      <c r="C143" s="58" t="s">
+      <c r="B143" s="45"/>
+      <c r="C143" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="12">
         <v>56</v>
       </c>
-      <c r="E143" s="33">
+      <c r="E143" s="21">
         <v>37.333333333333336</v>
       </c>
-      <c r="F143" s="33">
+      <c r="F143" s="21">
         <v>37.333333333333336</v>
       </c>
-      <c r="G143" s="34">
+      <c r="G143" s="22">
         <v>89.333333333333329</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="51"/>
-      <c r="C144" s="58" t="s">
+      <c r="B144" s="45"/>
+      <c r="C144" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="12">
         <v>12</v>
       </c>
-      <c r="E144" s="33">
+      <c r="E144" s="21">
         <v>8</v>
       </c>
-      <c r="F144" s="33">
+      <c r="F144" s="21">
         <v>8</v>
       </c>
-      <c r="G144" s="34">
+      <c r="G144" s="22">
         <v>97.333333333333343</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="51"/>
-      <c r="C145" s="58" t="s">
+      <c r="B145" s="45"/>
+      <c r="C145" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D145" s="23">
+      <c r="D145" s="12">
         <v>4</v>
       </c>
-      <c r="E145" s="33">
+      <c r="E145" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="F145" s="33">
+      <c r="F145" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="G145" s="34">
+      <c r="G145" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="52"/>
-      <c r="C146" s="41" t="s">
+      <c r="B146" s="46"/>
+      <c r="C146" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D146" s="35">
+      <c r="D146" s="23">
         <v>150</v>
       </c>
-      <c r="E146" s="36">
+      <c r="E146" s="24">
         <v>100</v>
       </c>
-      <c r="F146" s="36">
+      <c r="F146" s="24">
         <v>100</v>
       </c>
-      <c r="G146" s="37"/>
+      <c r="G146" s="25"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="158" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="4"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="49"/>
     </row>
     <row r="159" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="15"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="45" t="s">
+      <c r="B159" s="50"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="46" t="s">
+      <c r="E159" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F159" s="46" t="s">
+      <c r="F159" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G159" s="47"/>
+      <c r="G159" s="35"/>
     </row>
     <row r="160" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="54"/>
-      <c r="C160" s="44" t="s">
+      <c r="B160" s="52"/>
+      <c r="C160" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="9">
         <v>65</v>
       </c>
-      <c r="E160" s="31">
+      <c r="E160" s="19">
         <f>D160/150*100</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F160" s="19">
         <f>E160</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="G160" s="32"/>
+      <c r="G160" s="20"/>
     </row>
     <row r="161" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="51"/>
-      <c r="C161" s="42" t="s">
+      <c r="B161" s="45"/>
+      <c r="C161" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D161" s="23">
+      <c r="D161" s="12">
         <v>67</v>
       </c>
-      <c r="E161" s="33">
+      <c r="E161" s="21">
         <f>D161/150*100</f>
         <v>44.666666666666664</v>
       </c>
-      <c r="F161" s="33">
+      <c r="F161" s="21">
         <f>E161</f>
         <v>44.666666666666664</v>
       </c>
-      <c r="G161" s="34"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="51"/>
-      <c r="C162" s="42" t="s">
+      <c r="B162" s="45"/>
+      <c r="C162" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D162" s="23">
+      <c r="D162" s="12">
         <v>55</v>
       </c>
-      <c r="E162" s="33">
+      <c r="E162" s="21">
         <f>D162/150*100</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="F162" s="33">
+      <c r="F162" s="21">
         <f>E162</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="G162" s="34"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="163" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="52"/>
-      <c r="C163" s="41" t="s">
+      <c r="B163" s="46"/>
+      <c r="C163" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="35">
+      <c r="D163" s="23">
         <f>SUM(D160:D162)</f>
         <v>187</v>
       </c>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="37"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="25"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="4"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="49"/>
     </row>
     <row r="177" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="15"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="45" t="s">
+      <c r="B177" s="50"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E177" s="46" t="s">
+      <c r="E177" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F177" s="46" t="s">
+      <c r="F177" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G177" s="47" t="s">
+      <c r="G177" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="178" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="54"/>
-      <c r="C178" s="57" t="s">
+      <c r="B178" s="52"/>
+      <c r="C178" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D178" s="20">
+      <c r="D178" s="9">
         <v>142</v>
       </c>
-      <c r="E178" s="31">
+      <c r="E178" s="19">
         <v>94.666666666666671</v>
       </c>
-      <c r="F178" s="31">
+      <c r="F178" s="19">
         <v>94.666666666666671</v>
       </c>
-      <c r="G178" s="32">
+      <c r="G178" s="20">
         <v>94.666666666666671</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="51"/>
-      <c r="C179" s="58" t="s">
+      <c r="B179" s="45"/>
+      <c r="C179" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D179" s="23">
+      <c r="D179" s="12">
         <v>8</v>
       </c>
-      <c r="E179" s="33">
+      <c r="E179" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="F179" s="33">
+      <c r="F179" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="G179" s="34">
+      <c r="G179" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="52"/>
-      <c r="C180" s="41" t="s">
+      <c r="B180" s="46"/>
+      <c r="C180" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D180" s="35">
+      <c r="D180" s="23">
         <v>150</v>
       </c>
-      <c r="E180" s="36">
+      <c r="E180" s="24">
         <v>100</v>
       </c>
-      <c r="F180" s="36">
+      <c r="F180" s="24">
         <v>100</v>
       </c>
-      <c r="G180" s="37"/>
+      <c r="G180" s="25"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="4"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="49"/>
     </row>
     <row r="194" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="15"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="45" t="s">
+      <c r="B194" s="50"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E194" s="46" t="s">
+      <c r="E194" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F194" s="46" t="s">
+      <c r="F194" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G194" s="47" t="s">
+      <c r="G194" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="195" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="54"/>
-      <c r="C195" s="57" t="s">
+      <c r="B195" s="52"/>
+      <c r="C195" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D195" s="20">
+      <c r="D195" s="9">
         <v>146</v>
       </c>
-      <c r="E195" s="31">
+      <c r="E195" s="19">
         <v>97.333333333333343</v>
       </c>
-      <c r="F195" s="31">
+      <c r="F195" s="19">
         <v>97.333333333333343</v>
       </c>
-      <c r="G195" s="32">
+      <c r="G195" s="20">
         <v>97.333333333333343</v>
       </c>
     </row>
     <row r="196" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="51"/>
-      <c r="C196" s="58" t="s">
+      <c r="B196" s="45"/>
+      <c r="C196" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="12">
         <v>4</v>
       </c>
-      <c r="E196" s="33">
+      <c r="E196" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="F196" s="33">
+      <c r="F196" s="21">
         <v>2.666666666666667</v>
       </c>
-      <c r="G196" s="34">
+      <c r="G196" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="197" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="52"/>
-      <c r="C197" s="41" t="s">
+      <c r="B197" s="46"/>
+      <c r="C197" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D197" s="35">
+      <c r="D197" s="23">
         <v>150</v>
       </c>
-      <c r="E197" s="36">
+      <c r="E197" s="24">
         <v>100</v>
       </c>
-      <c r="F197" s="36">
+      <c r="F197" s="24">
         <v>100</v>
       </c>
-      <c r="G197" s="37"/>
+      <c r="G197" s="25"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="210" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="4"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="49"/>
     </row>
     <row r="211" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="15"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="45" t="s">
+      <c r="B211" s="50"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E211" s="46" t="s">
+      <c r="E211" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F211" s="46" t="s">
+      <c r="F211" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G211" s="47" t="s">
+      <c r="G211" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="212" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="54"/>
-      <c r="C212" s="57" t="s">
+      <c r="B212" s="52"/>
+      <c r="C212" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D212" s="20">
+      <c r="D212" s="9">
         <v>148</v>
       </c>
-      <c r="E212" s="31">
+      <c r="E212" s="19">
         <v>98.666666666666671</v>
       </c>
-      <c r="F212" s="31">
+      <c r="F212" s="19">
         <v>98.666666666666671</v>
       </c>
-      <c r="G212" s="32">
+      <c r="G212" s="20">
         <v>98.666666666666671</v>
       </c>
     </row>
     <row r="213" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="51"/>
-      <c r="C213" s="58" t="s">
+      <c r="B213" s="45"/>
+      <c r="C213" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D213" s="23">
+      <c r="D213" s="12">
         <v>2</v>
       </c>
-      <c r="E213" s="33">
+      <c r="E213" s="21">
         <v>1.3333333333333335</v>
       </c>
-      <c r="F213" s="33">
+      <c r="F213" s="21">
         <v>1.3333333333333335</v>
       </c>
-      <c r="G213" s="34">
+      <c r="G213" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="52"/>
-      <c r="C214" s="41" t="s">
+      <c r="B214" s="46"/>
+      <c r="C214" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D214" s="35">
+      <c r="D214" s="23">
         <v>150</v>
       </c>
-      <c r="E214" s="36">
+      <c r="E214" s="24">
         <v>100</v>
       </c>
-      <c r="F214" s="36">
+      <c r="F214" s="24">
         <v>100</v>
       </c>
-      <c r="G214" s="37"/>
+      <c r="G214" s="25"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="227" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="4"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="49"/>
     </row>
     <row r="228" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="15"/>
-      <c r="C228" s="16"/>
-      <c r="D228" s="45" t="s">
+      <c r="B228" s="50"/>
+      <c r="C228" s="51"/>
+      <c r="D228" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E228" s="46" t="s">
+      <c r="E228" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F228" s="46" t="s">
+      <c r="F228" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G228" s="47" t="s">
+      <c r="G228" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="229" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="48"/>
-      <c r="C229" s="57" t="s">
+      <c r="B229" s="36"/>
+      <c r="C229" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D229" s="38">
+      <c r="D229" s="26">
         <v>150</v>
       </c>
-      <c r="E229" s="39">
+      <c r="E229" s="27">
         <v>100</v>
       </c>
-      <c r="F229" s="39">
+      <c r="F229" s="27">
         <v>100</v>
       </c>
-      <c r="G229" s="40">
+      <c r="G229" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="4"/>
+      <c r="C239" s="48"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="49"/>
     </row>
     <row r="240" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B240" s="15"/>
-      <c r="C240" s="16"/>
-      <c r="D240" s="45" t="s">
+      <c r="B240" s="50"/>
+      <c r="C240" s="51"/>
+      <c r="D240" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E240" s="46" t="s">
+      <c r="E240" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F240" s="46" t="s">
+      <c r="F240" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G240" s="47"/>
+      <c r="G240" s="35"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="54"/>
-      <c r="C241" s="59" t="s">
+      <c r="B241" s="52"/>
+      <c r="C241" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D241" s="20">
+      <c r="D241" s="9">
         <v>58</v>
       </c>
-      <c r="E241" s="31">
+      <c r="E241" s="19">
         <f>D241/150*100</f>
         <v>38.666666666666664</v>
       </c>
-      <c r="F241" s="31">
+      <c r="F241" s="19">
         <f>E241</f>
         <v>38.666666666666664</v>
       </c>
-      <c r="G241" s="32"/>
+      <c r="G241" s="20"/>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="51"/>
-      <c r="C242" s="59" t="s">
+      <c r="B242" s="45"/>
+      <c r="C242" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D242" s="23">
+      <c r="D242" s="12">
         <v>19</v>
       </c>
-      <c r="E242" s="33">
+      <c r="E242" s="21">
         <f>D242/150*100</f>
         <v>12.666666666666668</v>
       </c>
-      <c r="F242" s="33">
+      <c r="F242" s="21">
         <f>E242</f>
         <v>12.666666666666668</v>
       </c>
-      <c r="G242" s="34"/>
+      <c r="G242" s="22"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B243" s="51"/>
-      <c r="C243" s="59" t="s">
+      <c r="B243" s="45"/>
+      <c r="C243" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D243" s="23">
+      <c r="D243" s="12">
         <v>74</v>
       </c>
-      <c r="E243" s="33">
+      <c r="E243" s="21">
         <f t="shared" ref="E243:E245" si="0">D243/150*100</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="F243" s="33">
-        <f t="shared" ref="F243:F245" si="1">E243</f>
+      <c r="F243" s="21">
+        <f t="shared" ref="F243:F246" si="1">E243</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="G243" s="34"/>
+      <c r="G243" s="22"/>
     </row>
     <row r="244" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="52"/>
-      <c r="C244" s="59" t="s">
+      <c r="B244" s="46"/>
+      <c r="C244" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D244" s="56">
+      <c r="D244" s="41">
         <v>14</v>
       </c>
-      <c r="E244" s="33">
+      <c r="E244" s="21">
         <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="F244" s="33">
+      <c r="F244" s="21">
         <f t="shared" si="1"/>
         <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="245" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C245" s="59" t="s">
+      <c r="C245" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D245" s="56">
+      <c r="D245" s="41">
         <v>5</v>
       </c>
-      <c r="E245" s="33">
+      <c r="E245" s="21">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="F245" s="33">
+      <c r="F245" s="21">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="246" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C246" s="41" t="s">
+      <c r="C246" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D246" s="35">
+      <c r="D246" s="23">
         <f>SUM(D241:D245)</f>
         <v>170</v>
       </c>
-      <c r="E246" s="36"/>
-      <c r="F246" s="36"/>
-      <c r="G246" s="37"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="25"/>
     </row>
     <row r="249" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="259" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="4"/>
+      <c r="C259" s="48"/>
+      <c r="D259" s="48"/>
+      <c r="E259" s="48"/>
+      <c r="F259" s="48"/>
+      <c r="G259" s="49"/>
     </row>
     <row r="260" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="15"/>
-      <c r="C260" s="16"/>
-      <c r="D260" s="45" t="s">
+      <c r="B260" s="50"/>
+      <c r="C260" s="51"/>
+      <c r="D260" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E260" s="46" t="s">
+      <c r="E260" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F260" s="46" t="s">
+      <c r="F260" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G260" s="47" t="s">
+      <c r="G260" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="261" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="54"/>
-      <c r="C261" s="57" t="s">
+      <c r="B261" s="52"/>
+      <c r="C261" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D261" s="20">
+      <c r="D261" s="9">
         <v>142</v>
       </c>
-      <c r="E261" s="31">
+      <c r="E261" s="19">
         <v>94.666666666666671</v>
       </c>
-      <c r="F261" s="31">
+      <c r="F261" s="19">
         <v>94.666666666666671</v>
       </c>
-      <c r="G261" s="32">
+      <c r="G261" s="20">
         <v>94.666666666666671</v>
       </c>
     </row>
     <row r="262" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="51"/>
-      <c r="C262" s="58" t="s">
+      <c r="B262" s="45"/>
+      <c r="C262" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D262" s="23">
+      <c r="D262" s="12">
         <v>8</v>
       </c>
-      <c r="E262" s="33">
+      <c r="E262" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="F262" s="33">
+      <c r="F262" s="21">
         <v>5.3333333333333339</v>
       </c>
-      <c r="G262" s="34">
+      <c r="G262" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="263" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="52"/>
-      <c r="C263" s="41" t="s">
+      <c r="B263" s="46"/>
+      <c r="C263" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D263" s="35">
+      <c r="D263" s="23">
         <v>150</v>
       </c>
-      <c r="E263" s="36">
+      <c r="E263" s="24">
         <v>100</v>
       </c>
-      <c r="F263" s="36">
+      <c r="F263" s="24">
         <v>100</v>
       </c>
-      <c r="G263" s="37"/>
+      <c r="G263" s="25"/>
     </row>
     <row r="268" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="4"/>
+      <c r="C276" s="48"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="49"/>
     </row>
     <row r="277" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B277" s="15"/>
-      <c r="C277" s="16"/>
-      <c r="D277" s="45" t="s">
+      <c r="B277" s="50"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E277" s="46" t="s">
+      <c r="E277" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F277" s="46" t="s">
+      <c r="F277" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G277" s="47" t="s">
+      <c r="G277" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B278" s="54"/>
-      <c r="C278" s="57" t="s">
+      <c r="B278" s="52"/>
+      <c r="C278" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D278" s="20">
+      <c r="D278" s="9">
         <v>144</v>
       </c>
-      <c r="E278" s="31">
+      <c r="E278" s="19">
         <v>96</v>
       </c>
-      <c r="F278" s="31">
+      <c r="F278" s="19">
         <v>96</v>
       </c>
-      <c r="G278" s="32">
+      <c r="G278" s="20">
         <v>96</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B279" s="51"/>
-      <c r="C279" s="58" t="s">
+      <c r="B279" s="45"/>
+      <c r="C279" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D279" s="23">
+      <c r="D279" s="12">
         <v>6</v>
       </c>
-      <c r="E279" s="33">
+      <c r="E279" s="21">
         <v>4</v>
       </c>
-      <c r="F279" s="33">
+      <c r="F279" s="21">
         <v>4</v>
       </c>
-      <c r="G279" s="34">
+      <c r="G279" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B280" s="52"/>
-      <c r="C280" s="41" t="s">
+      <c r="B280" s="46"/>
+      <c r="C280" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D280" s="35">
+      <c r="D280" s="23">
         <v>150</v>
       </c>
-      <c r="E280" s="36">
+      <c r="E280" s="24">
         <v>100</v>
       </c>
-      <c r="F280" s="36">
+      <c r="F280" s="24">
         <v>100</v>
       </c>
-      <c r="G280" s="37"/>
+      <c r="G280" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="51">
